--- a/Clientes.xlsx
+++ b/Clientes.xlsx
@@ -6174,7 +6174,7 @@
     <t>CAMACHO</t>
   </si>
   <si>
-    <t>COD_CLIENTE'</t>
+    <t>COD_CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -6254,7 +6254,7 @@
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="1" name="IdCliente" queryTableFieldId="1"/>
-    <tableColumn id="2" uniqueName="2" name="COD_CLIENTE'" queryTableFieldId="2"/>
+    <tableColumn id="2" uniqueName="2" name="COD_CLIENTE" queryTableFieldId="2"/>
     <tableColumn id="3" uniqueName="3" name="Descripcion" queryTableFieldId="3"/>
     <tableColumn id="4" uniqueName="4" name="Direccion" queryTableFieldId="4"/>
     <tableColumn id="5" uniqueName="5" name="Logo" queryTableFieldId="5"/>
@@ -6531,7 +6531,7 @@
   <dimension ref="A1:G977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
